--- a/src/Демографические данные.xlsx
+++ b/src/Демографические данные.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>T</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t>5б</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Антропометрия</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,16 +101,37 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,18 +139,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,167 +460,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D6" s="4">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E6" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D7" s="5">
         <v>30</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E7" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D8" s="5">
         <v>29</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D9" s="5">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D10" s="5">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D11" s="4">
         <v>21</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D12" s="4">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E12" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D13" s="4">
         <v>23</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D14" s="5">
         <v>33</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D15" s="5">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>1</v>
       </c>
     </row>
